--- a/paper/raw_data/revised/old_results/exp20_and_exp27_CTR_SIZE.xlsx
+++ b/paper/raw_data/revised/old_results/exp20_and_exp27_CTR_SIZE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aprodrom\Desktop\MemPod\paper\raw_data\revised\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prodr\Desktop\MemPod\paper\raw_data\revised\old_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,11 +15,7 @@
     <sheet name="CTR SIZE (50us)" sheetId="2" r:id="rId1"/>
     <sheet name="CTR SIZE (100us)" sheetId="3" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -139,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -182,12 +178,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -206,7 +202,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -278,6 +274,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-859B-4412-A170-A4A8EBA98CB8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -318,6 +319,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-859B-4412-A170-A4A8EBA98CB8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -358,6 +364,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-859B-4412-A170-A4A8EBA98CB8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -463,6 +474,11 @@
             </c:numRef>
           </c:cat>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-859B-4412-A170-A4A8EBA98CB8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -552,6 +568,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-859B-4412-A170-A4A8EBA98CB8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -622,6 +643,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-859B-4412-A170-A4A8EBA98CB8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -692,6 +718,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-859B-4412-A170-A4A8EBA98CB8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -753,6 +784,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-859B-4412-A170-A4A8EBA98CB8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -911,12 +947,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="900" b="1"/>
-                  <a:t>AMMAT / AMMAT(16)</a:t>
+                  <a:t>AMMAT / AMMAT(2)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1823,252 +1858,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="INTERVAL"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="42">
-          <cell r="J42">
-            <v>50</v>
-          </cell>
-          <cell r="K42">
-            <v>1</v>
-          </cell>
-          <cell r="S42">
-            <v>9.9580000000000002</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="J43">
-            <v>100</v>
-          </cell>
-          <cell r="K43">
-            <v>0.99451557123644152</v>
-          </cell>
-          <cell r="S43">
-            <v>15.714666666666668</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="J44">
-            <v>200</v>
-          </cell>
-          <cell r="K44">
-            <v>1.0016942343632651</v>
-          </cell>
-          <cell r="S44">
-            <v>24.36</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="J45">
-            <v>300</v>
-          </cell>
-          <cell r="K45">
-            <v>1.0061656157755927</v>
-          </cell>
-          <cell r="S45">
-            <v>29.024666666666672</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="J46">
-            <v>400</v>
-          </cell>
-          <cell r="K46">
-            <v>1.0125058948876038</v>
-          </cell>
-          <cell r="S46">
-            <v>31.903333333333332</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="J47">
-            <v>500</v>
-          </cell>
-          <cell r="K47">
-            <v>1.0219901140551586</v>
-          </cell>
-          <cell r="S47">
-            <v>35.209333333333333</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="J49">
-            <v>50</v>
-          </cell>
-          <cell r="L49">
-            <v>1</v>
-          </cell>
-          <cell r="T49">
-            <v>17.181666666666668</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="J50">
-            <v>100</v>
-          </cell>
-          <cell r="L50">
-            <v>0.97963068722634694</v>
-          </cell>
-          <cell r="T50">
-            <v>25.487500000000001</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="J51">
-            <v>200</v>
-          </cell>
-          <cell r="L51">
-            <v>0.97713211498191499</v>
-          </cell>
-          <cell r="T51">
-            <v>36.661666666666669</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="J52">
-            <v>300</v>
-          </cell>
-          <cell r="L52">
-            <v>0.97951170759565964</v>
-          </cell>
-          <cell r="T52">
-            <v>42.075833333333328</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="J53">
-            <v>400</v>
-          </cell>
-          <cell r="L53">
-            <v>0.98234342280601539</v>
-          </cell>
-          <cell r="T53">
-            <v>45.681666666666665</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="J54">
-            <v>500</v>
-          </cell>
-          <cell r="L54">
-            <v>0.98955358842566132</v>
-          </cell>
-          <cell r="T54">
-            <v>46.295833333333341</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="J56">
-            <v>50</v>
-          </cell>
-          <cell r="M56">
-            <v>1</v>
-          </cell>
-          <cell r="U56">
-            <v>13.168518518518518</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="J57">
-            <v>100</v>
-          </cell>
-          <cell r="M57">
-            <v>0.98821479295305026</v>
-          </cell>
-          <cell r="U57">
-            <v>20.058148148148149</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="J58">
-            <v>200</v>
-          </cell>
-          <cell r="M58">
-            <v>0.99129707787302213</v>
-          </cell>
-          <cell r="U58">
-            <v>29.827407407407403</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="J59">
-            <v>300</v>
-          </cell>
-          <cell r="M59">
-            <v>0.99488300411978636</v>
-          </cell>
-          <cell r="U59">
-            <v>34.825185185185191</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="J60">
-            <v>400</v>
-          </cell>
-          <cell r="M60">
-            <v>0.99973810651006778</v>
-          </cell>
-          <cell r="U60">
-            <v>38.02703703703704</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="J61">
-            <v>500</v>
-          </cell>
-          <cell r="M61">
-            <v>1.0082597177594004</v>
-          </cell>
-          <cell r="U61">
-            <v>40.13666666666667</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="NUM_MEA"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="42">
-          <cell r="B42">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>AVG HG</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52" t="str">
-            <v>AVG MIX</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59" t="str">
-            <v>AVG ALL</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2145,6 +1934,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2180,6 +1986,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2346,379 +2169,379 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="1" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-    </row>
-    <row r="2" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3">
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+    </row>
+    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>4</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>8</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>16</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>32</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>2</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>4</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <v>8</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="2">
         <v>16</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="2">
         <v>32</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="2">
         <v>2</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="2">
         <v>4</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="2">
         <v>8</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="2">
         <v>16</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2" s="2">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="O10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="O11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="O12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="O13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="O15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="O16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="O17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="O18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="O19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="O20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="O21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="O22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="O23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="O24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="O25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="O26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="O27" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="O28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="O29" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B30" t="e">
@@ -2741,30 +2564,30 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I30" t="e">
-        <f>B30/$B30</f>
+        <f t="shared" ref="I30:M32" si="1">B30/$B30</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J30" t="e">
-        <f>C30/$B30</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K30" t="e">
-        <f>D30/$B30</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L30" t="e">
-        <f>E30/$B30</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M30" t="e">
-        <f>F30/$B30</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="O30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P30" t="e">
@@ -2789,7 +2612,7 @@
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B31" t="e">
@@ -2797,70 +2620,70 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C31" t="e">
-        <f t="shared" ref="C31:T31" si="1">AVERAGE(C18:C29)</f>
+        <f t="shared" ref="C31:T31" si="2">AVERAGE(C18:C29)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D31" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" t="e">
+      <c r="J31" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F31" t="e">
+      <c r="K31" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I31" t="e">
-        <f>B31/$B31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J31" t="e">
-        <f>C31/$B31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K31" t="e">
-        <f>D31/$B31</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="L31" t="e">
-        <f>E31/$B31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M31" t="e">
-        <f>F31/$B31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P31" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q31" t="e">
+      <c r="M31" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="O31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P31" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q31" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="R31" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S31" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T31" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B32" t="e">
@@ -2868,370 +2691,370 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C32" t="e">
-        <f t="shared" ref="C32:T32" si="2">AVERAGE(C3:C29)</f>
+        <f t="shared" ref="C32:T32" si="3">AVERAGE(C3:C29)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D32" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E32" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F32" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I32" t="e">
-        <f>B32/$B32</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J32" t="e">
-        <f>C32/$B32</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K32" t="e">
-        <f>D32/$B32</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L32" t="e">
-        <f>E32/$B32</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M32" t="e">
-        <f>F32/$B32</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O32" s="3" t="s">
+      <c r="O32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P32" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q32" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R32" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S32" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T32" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="1" t="s">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="1" t="s">
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O37" s="3" t="s">
+      <c r="O37" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O38" s="3" t="s">
+      <c r="O38" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O39" s="3" t="s">
+      <c r="O39" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3">
         <v>2</v>
       </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="4">
+      <c r="H42" s="2"/>
+      <c r="I42" s="3">
         <v>2</v>
       </c>
-      <c r="O42" s="3"/>
-      <c r="P42" s="4">
+      <c r="O42" s="2"/>
+      <c r="P42" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="4">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3">
         <v>4</v>
       </c>
-      <c r="H43" s="3"/>
-      <c r="I43" s="4">
+      <c r="H43" s="2"/>
+      <c r="I43" s="3">
         <v>4</v>
       </c>
-      <c r="O43" s="3"/>
-      <c r="P43" s="4">
+      <c r="O43" s="2"/>
+      <c r="P43" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="4">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3">
         <v>8</v>
       </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="4">
+      <c r="H44" s="2"/>
+      <c r="I44" s="3">
         <v>8</v>
       </c>
-      <c r="O44" s="3"/>
-      <c r="P44" s="4">
+      <c r="O44" s="2"/>
+      <c r="P44" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <v>16</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="3">
         <v>16</v>
       </c>
-      <c r="O45" s="3" t="s">
+      <c r="O45" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P45" s="4">
+      <c r="P45" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4">
+      <c r="A46" s="2"/>
+      <c r="B46" s="3">
         <v>32</v>
       </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="4">
+      <c r="H46" s="2"/>
+      <c r="I46" s="3">
         <v>32</v>
       </c>
-      <c r="O46" s="3"/>
-      <c r="P46" s="4">
+      <c r="O46" s="2"/>
+      <c r="P46" s="3">
         <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="4"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="4"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="4"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="3"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="3"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="4">
+      <c r="A48" s="2"/>
+      <c r="B48" s="3">
         <v>2</v>
       </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="4">
+      <c r="H48" s="2"/>
+      <c r="I48" s="3">
         <v>2</v>
       </c>
-      <c r="O48" s="3"/>
-      <c r="P48" s="4">
+      <c r="O48" s="2"/>
+      <c r="P48" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="4">
+      <c r="A49" s="2"/>
+      <c r="B49" s="3">
         <v>4</v>
       </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="4">
+      <c r="H49" s="2"/>
+      <c r="I49" s="3">
         <v>4</v>
       </c>
-      <c r="O49" s="3"/>
-      <c r="P49" s="4">
+      <c r="O49" s="2"/>
+      <c r="P49" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="4">
+      <c r="A50" s="4"/>
+      <c r="B50" s="3">
         <v>8</v>
       </c>
-      <c r="H50" s="5"/>
-      <c r="I50" s="4">
+      <c r="H50" s="4"/>
+      <c r="I50" s="3">
         <v>8</v>
       </c>
-      <c r="O50" s="5"/>
-      <c r="P50" s="4">
+      <c r="O50" s="4"/>
+      <c r="P50" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="3">
         <v>16</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I51" s="3">
         <v>16</v>
       </c>
-      <c r="O51" s="3" t="s">
+      <c r="O51" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P51" s="4">
+      <c r="P51" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="4">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3">
         <v>32</v>
       </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="4">
+      <c r="H52" s="2"/>
+      <c r="I52" s="3">
         <v>32</v>
       </c>
-      <c r="O52" s="3"/>
-      <c r="P52" s="4">
+      <c r="O52" s="2"/>
+      <c r="P52" s="3">
         <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="4"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="4"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="4"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="3"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="3"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="4">
+      <c r="A54" s="2"/>
+      <c r="B54" s="3">
         <v>2</v>
       </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="4">
+      <c r="H54" s="2"/>
+      <c r="I54" s="3">
         <v>2</v>
       </c>
-      <c r="O54" s="3"/>
-      <c r="P54" s="4">
+      <c r="O54" s="2"/>
+      <c r="P54" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="4">
+      <c r="A55" s="4"/>
+      <c r="B55" s="3">
         <v>4</v>
       </c>
-      <c r="H55" s="5"/>
-      <c r="I55" s="4">
+      <c r="H55" s="4"/>
+      <c r="I55" s="3">
         <v>4</v>
       </c>
-      <c r="O55" s="5"/>
-      <c r="P55" s="4">
+      <c r="O55" s="4"/>
+      <c r="P55" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="4">
+      <c r="A56" s="4"/>
+      <c r="B56" s="3">
         <v>8</v>
       </c>
-      <c r="H56" s="5"/>
-      <c r="I56" s="4">
+      <c r="H56" s="4"/>
+      <c r="I56" s="3">
         <v>8</v>
       </c>
-      <c r="O56" s="5"/>
-      <c r="P56" s="4">
+      <c r="O56" s="4"/>
+      <c r="P56" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="3">
         <v>16</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="H57" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I57" s="3">
         <v>16</v>
       </c>
-      <c r="O57" s="3" t="s">
+      <c r="O57" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P57" s="4">
+      <c r="P57" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="4">
+      <c r="A58" s="2"/>
+      <c r="B58" s="3">
         <v>32</v>
       </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="4">
+      <c r="H58" s="2"/>
+      <c r="I58" s="3">
         <v>32</v>
       </c>
-      <c r="O58" s="3"/>
-      <c r="P58" s="4">
+      <c r="O58" s="2"/>
+      <c r="P58" s="3">
         <v>32</v>
       </c>
     </row>
@@ -3265,82 +3088,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="1" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-    </row>
-    <row r="2" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3">
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+    </row>
+    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>4</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>8</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>16</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>32</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>2</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>4</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <v>8</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="2">
         <v>16</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="2">
         <v>32</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="2">
         <v>2</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="2">
         <v>4</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="2">
         <v>8</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="2">
         <v>16</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2" s="2">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -3358,7 +3181,7 @@
       <c r="F3">
         <v>25.29</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I3">
@@ -3381,7 +3204,7 @@
         <f t="shared" si="0"/>
         <v>0.99293286219081278</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="P3">
@@ -3401,7 +3224,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -3419,7 +3242,7 @@
       <c r="F4">
         <v>49.14</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I4">
@@ -3442,7 +3265,7 @@
         <f t="shared" si="0"/>
         <v>0.99918666124440836</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P4">
@@ -3462,7 +3285,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -3480,7 +3303,7 @@
       <c r="F5">
         <v>63.87</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I5">
@@ -3503,7 +3326,7 @@
         <f t="shared" si="0"/>
         <v>0.99874902267396393</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="P5">
@@ -3523,7 +3346,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -3541,7 +3364,7 @@
       <c r="F6">
         <v>44.95</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I6">
@@ -3564,7 +3387,7 @@
         <f t="shared" si="0"/>
         <v>1.0011135857461027</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="P6">
@@ -3584,7 +3407,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -3602,7 +3425,7 @@
       <c r="F7">
         <v>66.17</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I7">
@@ -3625,7 +3448,7 @@
         <f t="shared" si="0"/>
         <v>0.9945889072598828</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="P7">
@@ -3645,7 +3468,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -3663,7 +3486,7 @@
       <c r="F8">
         <v>15.46</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I8">
@@ -3686,7 +3509,7 @@
         <f t="shared" si="0"/>
         <v>0.99741935483870969</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="P8">
@@ -3706,7 +3529,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -3724,7 +3547,7 @@
       <c r="F9">
         <v>49.21</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I9">
@@ -3747,7 +3570,7 @@
         <f t="shared" si="0"/>
         <v>0.98538245895074095</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="P9">
@@ -3767,7 +3590,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -3785,7 +3608,7 @@
       <c r="F10">
         <v>19.45</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I10">
@@ -3808,7 +3631,7 @@
         <f t="shared" si="0"/>
         <v>1.0564910374796306</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="O10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="P10">
@@ -3828,7 +3651,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -3846,7 +3669,7 @@
       <c r="F11">
         <v>36.94</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I11">
@@ -3869,7 +3692,7 @@
         <f t="shared" si="0"/>
         <v>0.99810861929208317</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="O11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P11">
@@ -3889,7 +3712,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -3907,7 +3730,7 @@
       <c r="F12">
         <v>14.15</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I12">
@@ -3930,7 +3753,7 @@
         <f t="shared" si="0"/>
         <v>0.99929378531073443</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="O12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="P12">
@@ -3950,7 +3773,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -3968,7 +3791,7 @@
       <c r="F13">
         <v>24.2</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I13">
@@ -3991,7 +3814,7 @@
         <f t="shared" si="0"/>
         <v>0.99302421009437825</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="O13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P13">
@@ -4011,7 +3834,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -4029,7 +3852,7 @@
       <c r="F14">
         <v>14.25</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I14">
@@ -4052,7 +3875,7 @@
         <f t="shared" si="0"/>
         <v>0.99650349650349646</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="P14">
@@ -4072,7 +3895,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -4090,7 +3913,7 @@
       <c r="F15">
         <v>30.34</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I15">
@@ -4113,7 +3936,7 @@
         <f t="shared" si="0"/>
         <v>1.0003297065611607</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="O15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="P15">
@@ -4133,7 +3956,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -4151,7 +3974,7 @@
       <c r="F16">
         <v>66.459999999999994</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I16">
@@ -4174,7 +3997,7 @@
         <f t="shared" si="0"/>
         <v>0.99386870046358589</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="O16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="P16">
@@ -4194,7 +4017,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -4212,7 +4035,7 @@
       <c r="F17">
         <v>49.51</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I17">
@@ -4235,7 +4058,7 @@
         <f t="shared" si="0"/>
         <v>0.99437638079935731</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="O17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="P17">
@@ -4255,7 +4078,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -4273,7 +4096,7 @@
       <c r="F18">
         <v>30.73</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I18">
@@ -4296,7 +4119,7 @@
         <f t="shared" si="0"/>
         <v>0.99321266968325794</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="O18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="P18">
@@ -4316,7 +4139,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -4334,7 +4157,7 @@
       <c r="F19">
         <v>19.87</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I19">
@@ -4357,7 +4180,7 @@
         <f t="shared" ref="M19:M32" si="5">F19/$B19</f>
         <v>0.99949698189134817</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="O19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P19">
@@ -4377,7 +4200,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -4395,7 +4218,7 @@
       <c r="F20">
         <v>34.880000000000003</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I20">
@@ -4418,7 +4241,7 @@
         <f t="shared" si="5"/>
         <v>0.97267150027886229</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="O20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="P20">
@@ -4438,7 +4261,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -4456,7 +4279,7 @@
       <c r="F21">
         <v>49.63</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I21">
@@ -4479,7 +4302,7 @@
         <f t="shared" si="5"/>
         <v>1.0128571428571429</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="O21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="P21">
@@ -4499,7 +4322,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -4517,7 +4340,7 @@
       <c r="F22">
         <v>33.93</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I22">
@@ -4540,7 +4363,7 @@
         <f t="shared" si="5"/>
         <v>0.97696515980420395</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="O22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="P22">
@@ -4560,7 +4383,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -4578,7 +4401,7 @@
       <c r="F23">
         <v>22.92</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I23">
@@ -4601,7 +4424,7 @@
         <f t="shared" si="5"/>
         <v>1.0039421813403417</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="O23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="P23">
@@ -4621,7 +4444,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -4639,7 +4462,7 @@
       <c r="F24">
         <v>32.409999999999997</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I24">
@@ -4662,7 +4485,7 @@
         <f t="shared" si="5"/>
         <v>1.0175824175824175</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="O24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="P24">
@@ -4682,7 +4505,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -4700,7 +4523,7 @@
       <c r="F25">
         <v>35.770000000000003</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I25">
@@ -4723,7 +4546,7 @@
         <f t="shared" si="5"/>
         <v>1.0359108022009846</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="O25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="P25">
@@ -4743,7 +4566,7 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -4761,7 +4584,7 @@
       <c r="F26">
         <v>27.57</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="I26">
@@ -4784,7 +4607,7 @@
         <f t="shared" si="5"/>
         <v>1.0136029411764707</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="O26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="P26">
@@ -4804,7 +4627,7 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -4822,7 +4645,7 @@
       <c r="F27">
         <v>44.86</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I27">
@@ -4845,7 +4668,7 @@
         <f t="shared" si="5"/>
         <v>1.0149321266968325</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="O27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P27">
@@ -4865,7 +4688,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -4883,7 +4706,7 @@
       <c r="F28">
         <v>40.93</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I28">
@@ -4906,7 +4729,7 @@
         <f t="shared" si="5"/>
         <v>1.0731515469323545</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="O28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="P28">
@@ -4926,7 +4749,7 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -4944,7 +4767,7 @@
       <c r="F29">
         <v>38.18</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I29">
@@ -4967,7 +4790,7 @@
         <f t="shared" si="5"/>
         <v>1.020582731889869</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="O29" s="2" t="s">
         <v>28</v>
       </c>
       <c r="P29">
@@ -4987,7 +4810,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -5010,7 +4833,7 @@
         <f t="shared" si="6"/>
         <v>37.959333333333326</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I30">
@@ -5033,7 +4856,7 @@
         <f t="shared" si="5"/>
         <v>0.99768709151758317</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="O30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P30">
@@ -5058,7 +4881,7 @@
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -5081,7 +4904,7 @@
         <f t="shared" si="7"/>
         <v>34.306666666666672</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I31">
@@ -5104,7 +4927,7 @@
         <f t="shared" si="5"/>
         <v>1.0125685613793445</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="O31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P31">
@@ -5129,7 +4952,7 @@
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -5152,7 +4975,7 @@
         <f t="shared" si="8"/>
         <v>36.335925925925913</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I32">
@@ -5175,7 +4998,7 @@
         <f t="shared" si="5"/>
         <v>1.0038781106745247</v>
       </c>
-      <c r="O32" s="3" t="s">
+      <c r="O32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P32">
@@ -5200,35 +5023,35 @@
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="1" t="s">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="1" t="s">
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B37">
@@ -5246,7 +5069,7 @@
       <c r="F37">
         <v>37.959333333333326</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I37">
@@ -5264,7 +5087,7 @@
       <c r="M37">
         <v>0.99768709151758317</v>
       </c>
-      <c r="O37" s="3" t="s">
+      <c r="O37" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P37">
@@ -5284,7 +5107,7 @@
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B38">
@@ -5302,7 +5125,7 @@
       <c r="F38">
         <v>34.306666666666672</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I38">
@@ -5320,7 +5143,7 @@
       <c r="M38">
         <v>1.0125685613793445</v>
       </c>
-      <c r="O38" s="3" t="s">
+      <c r="O38" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P38">
@@ -5340,7 +5163,7 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B39">
@@ -5358,7 +5181,7 @@
       <c r="F39">
         <v>36.335925925925913</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I39">
@@ -5376,7 +5199,7 @@
       <c r="M39">
         <v>1.0038781106745247</v>
       </c>
-      <c r="O39" s="3" t="s">
+      <c r="O39" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P39">
@@ -5396,22 +5219,22 @@
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3">
         <v>2</v>
       </c>
       <c r="C42">
         <v>38.047333333333334</v>
       </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="4">
+      <c r="H42" s="2"/>
+      <c r="I42" s="3">
         <v>2</v>
       </c>
       <c r="J42">
         <v>1</v>
       </c>
-      <c r="O42" s="3"/>
-      <c r="P42" s="4">
+      <c r="O42" s="2"/>
+      <c r="P42" s="3">
         <v>2</v>
       </c>
       <c r="Q42">
@@ -5419,22 +5242,22 @@
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="4">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3">
         <v>4</v>
       </c>
       <c r="C43">
         <v>37.932000000000002</v>
       </c>
-      <c r="H43" s="3"/>
-      <c r="I43" s="4">
+      <c r="H43" s="2"/>
+      <c r="I43" s="3">
         <v>4</v>
       </c>
       <c r="J43">
         <v>0.99696868812531758</v>
       </c>
-      <c r="O43" s="3"/>
-      <c r="P43" s="4">
+      <c r="O43" s="2"/>
+      <c r="P43" s="3">
         <v>4</v>
       </c>
       <c r="Q43">
@@ -5442,22 +5265,22 @@
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="4">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3">
         <v>8</v>
       </c>
       <c r="C44">
         <v>37.959333333333326</v>
       </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="4">
+      <c r="H44" s="2"/>
+      <c r="I44" s="3">
         <v>8</v>
       </c>
       <c r="J44">
         <v>0.99768709151758317</v>
       </c>
-      <c r="O44" s="3"/>
-      <c r="P44" s="4">
+      <c r="O44" s="2"/>
+      <c r="P44" s="3">
         <v>8</v>
       </c>
       <c r="Q44">
@@ -5465,28 +5288,28 @@
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <v>16</v>
       </c>
       <c r="C45">
         <v>37.959333333333326</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="3">
         <v>16</v>
       </c>
       <c r="J45">
         <v>0.99768709151758317</v>
       </c>
-      <c r="O45" s="3" t="s">
+      <c r="O45" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P45" s="4">
+      <c r="P45" s="3">
         <v>16</v>
       </c>
       <c r="Q45">
@@ -5494,22 +5317,22 @@
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4">
+      <c r="A46" s="2"/>
+      <c r="B46" s="3">
         <v>32</v>
       </c>
       <c r="C46">
         <v>37.959333333333326</v>
       </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="4">
+      <c r="H46" s="2"/>
+      <c r="I46" s="3">
         <v>32</v>
       </c>
       <c r="J46">
         <v>0.99768709151758317</v>
       </c>
-      <c r="O46" s="3"/>
-      <c r="P46" s="4">
+      <c r="O46" s="2"/>
+      <c r="P46" s="3">
         <v>32</v>
       </c>
       <c r="Q46">
@@ -5517,30 +5340,30 @@
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="4"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="4"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="4"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="3"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="3"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="4">
+      <c r="A48" s="2"/>
+      <c r="B48" s="3">
         <v>2</v>
       </c>
       <c r="D48">
         <v>33.880833333333328</v>
       </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="4">
+      <c r="H48" s="2"/>
+      <c r="I48" s="3">
         <v>2</v>
       </c>
       <c r="K48">
         <v>1</v>
       </c>
-      <c r="O48" s="3"/>
-      <c r="P48" s="4">
+      <c r="O48" s="2"/>
+      <c r="P48" s="3">
         <v>2</v>
       </c>
       <c r="R48">
@@ -5548,22 +5371,22 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="4">
+      <c r="A49" s="2"/>
+      <c r="B49" s="3">
         <v>4</v>
       </c>
       <c r="D49">
         <v>33.514166666666661</v>
       </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="4">
+      <c r="H49" s="2"/>
+      <c r="I49" s="3">
         <v>4</v>
       </c>
       <c r="K49">
         <v>0.98917775536807928</v>
       </c>
-      <c r="O49" s="3"/>
-      <c r="P49" s="4">
+      <c r="O49" s="2"/>
+      <c r="P49" s="3">
         <v>4</v>
       </c>
       <c r="R49">
@@ -5571,22 +5394,22 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="4">
+      <c r="A50" s="4"/>
+      <c r="B50" s="3">
         <v>8</v>
       </c>
       <c r="D50">
         <v>34.306666666666672</v>
       </c>
-      <c r="H50" s="5"/>
-      <c r="I50" s="4">
+      <c r="H50" s="4"/>
+      <c r="I50" s="3">
         <v>8</v>
       </c>
       <c r="K50">
         <v>1.0125685613793445</v>
       </c>
-      <c r="O50" s="5"/>
-      <c r="P50" s="4">
+      <c r="O50" s="4"/>
+      <c r="P50" s="3">
         <v>8</v>
       </c>
       <c r="R50">
@@ -5594,28 +5417,28 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="3">
         <v>16</v>
       </c>
       <c r="D51">
         <v>34.306666666666672</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I51" s="3">
         <v>16</v>
       </c>
       <c r="K51">
         <v>1.0125685613793445</v>
       </c>
-      <c r="O51" s="3" t="s">
+      <c r="O51" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P51" s="4">
+      <c r="P51" s="3">
         <v>16</v>
       </c>
       <c r="R51">
@@ -5623,22 +5446,22 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="4">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3">
         <v>32</v>
       </c>
       <c r="D52">
         <v>34.306666666666672</v>
       </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="4">
+      <c r="H52" s="2"/>
+      <c r="I52" s="3">
         <v>32</v>
       </c>
       <c r="K52">
         <v>1.0125685613793445</v>
       </c>
-      <c r="O52" s="3"/>
-      <c r="P52" s="4">
+      <c r="O52" s="2"/>
+      <c r="P52" s="3">
         <v>32</v>
       </c>
       <c r="R52">
@@ -5646,30 +5469,30 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="4"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="4"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="4"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="3"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="3"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="4">
+      <c r="A54" s="2"/>
+      <c r="B54" s="3">
         <v>2</v>
       </c>
       <c r="E54">
         <v>36.195555555555565</v>
       </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="4">
+      <c r="H54" s="2"/>
+      <c r="I54" s="3">
         <v>2</v>
       </c>
       <c r="L54">
         <v>1</v>
       </c>
-      <c r="O54" s="3"/>
-      <c r="P54" s="4">
+      <c r="O54" s="2"/>
+      <c r="P54" s="3">
         <v>2</v>
       </c>
       <c r="S54">
@@ -5677,22 +5500,22 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="4">
+      <c r="A55" s="4"/>
+      <c r="B55" s="3">
         <v>4</v>
       </c>
       <c r="E55">
         <v>35.968518518518508</v>
       </c>
-      <c r="H55" s="5"/>
-      <c r="I55" s="4">
+      <c r="H55" s="4"/>
+      <c r="I55" s="3">
         <v>4</v>
       </c>
       <c r="L55">
         <v>0.99372748853961956</v>
       </c>
-      <c r="O55" s="5"/>
-      <c r="P55" s="4">
+      <c r="O55" s="4"/>
+      <c r="P55" s="3">
         <v>4</v>
       </c>
       <c r="S55">
@@ -5700,22 +5523,22 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="4">
+      <c r="A56" s="4"/>
+      <c r="B56" s="3">
         <v>8</v>
       </c>
       <c r="E56">
         <v>36.335925925925913</v>
       </c>
-      <c r="H56" s="5"/>
-      <c r="I56" s="4">
+      <c r="H56" s="4"/>
+      <c r="I56" s="3">
         <v>8</v>
       </c>
       <c r="L56">
         <v>1.0038781106745247</v>
       </c>
-      <c r="O56" s="5"/>
-      <c r="P56" s="4">
+      <c r="O56" s="4"/>
+      <c r="P56" s="3">
         <v>8</v>
       </c>
       <c r="S56">
@@ -5723,28 +5546,28 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="3">
         <v>16</v>
       </c>
       <c r="E57">
         <v>36.335925925925913</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="H57" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I57" s="3">
         <v>16</v>
       </c>
       <c r="L57">
         <v>1.0038781106745247</v>
       </c>
-      <c r="O57" s="3" t="s">
+      <c r="O57" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P57" s="4">
+      <c r="P57" s="3">
         <v>16</v>
       </c>
       <c r="S57">
@@ -5752,22 +5575,22 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="4">
+      <c r="A58" s="2"/>
+      <c r="B58" s="3">
         <v>32</v>
       </c>
       <c r="E58">
         <v>36.335925925925913</v>
       </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="4">
+      <c r="H58" s="2"/>
+      <c r="I58" s="3">
         <v>32</v>
       </c>
       <c r="L58">
         <v>1.0038781106745247</v>
       </c>
-      <c r="O58" s="3"/>
-      <c r="P58" s="4">
+      <c r="O58" s="2"/>
+      <c r="P58" s="3">
         <v>32</v>
       </c>
       <c r="S58">
